--- a/Libraries/Vehicle/AntiRollBar/sm_car_data_AntiRollBar_Droplink_Rod.xlsx
+++ b/Libraries/Vehicle/AntiRollBar/sm_car_data_AntiRollBar_Droplink_Rod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\AntiRollBar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\AntiRollBar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D882D302-4B57-406E-9416-E871E6CBBE15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413F3966-378A-419B-9C13-FEE682779486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="979" xr2:uid="{3FA59F9D-D9D3-4E28-B3CE-9BFC80E89258}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="979" xr2:uid="{3FA59F9D-D9D3-4E28-B3CE-9BFC80E89258}"/>
   </bookViews>
   <sheets>
     <sheet name="Achilles_f" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>Units</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>DroplinkRod_FSAE_Achilles_f</t>
+  </si>
+  <si>
+    <t>Must be same as Linkage.Bellcrank.sAntiRollBar</t>
   </si>
 </sst>
 </file>
@@ -159,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -172,9 +175,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -182,49 +184,18 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -267,9 +238,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -307,7 +278,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -413,7 +384,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -555,7 +526,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -566,27 +537,27 @@
   <sheetPr>
     <tabColor rgb="FFFF9999"/>
   </sheetPr>
-  <dimension ref="A1:AB16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D33" sqref="D33"/>
       <selection pane="topRight" activeCell="D33" sqref="D33"/>
       <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
-    <col min="16" max="16" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
     <col min="20" max="26" width="7" bestFit="1" customWidth="1"/>
@@ -594,7 +565,7 @@
     <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -614,226 +585,171 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-    </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="15">
+      <c r="E5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6">
         <v>-1.43E-2</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="6">
         <v>0.16591</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="6">
         <v>7.3800000000000004E-2</v>
       </c>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-    </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>0.14255000000000001</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>0.16200000000000001</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>6.8529999999999994E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>0.126</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>0.1595</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>0.12307</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6">
         <v>30.96</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="H16" s="13"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="H16" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A13:B14">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+  <conditionalFormatting sqref="A15:A16">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B12 A4:B4">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+  <conditionalFormatting sqref="A4:B4 A11:B14">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -846,27 +762,27 @@
   <sheetPr>
     <tabColor rgb="FFFF9999"/>
   </sheetPr>
-  <dimension ref="A1:AB16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D33" sqref="D33"/>
       <selection pane="topRight" activeCell="D33" sqref="D33"/>
       <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
-    <col min="16" max="16" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
     <col min="20" max="26" width="7" bestFit="1" customWidth="1"/>
@@ -874,7 +790,7 @@
     <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -894,226 +810,171 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-    </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="15">
+      <c r="E5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6">
         <v>5.8860000000000003E-2</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="6">
         <v>0.2467</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="6">
         <v>0.12791</v>
       </c>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-    </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>0.12486999999999999</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>0.218</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>0.12956000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>0.11799</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>0.21687000000000001</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>8.3070000000000005E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6">
         <v>76.72</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="H16" s="13"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="H16" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A13:B14">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="A15:A16">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B12 A4:B4">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="A4:B4 A11:B14">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/AntiRollBar/sm_car_data_AntiRollBar_Droplink_Rod.xlsx
+++ b/Libraries/Vehicle/AntiRollBar/sm_car_data_AntiRollBar_Droplink_Rod.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\AntiRollBar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413F3966-378A-419B-9C13-FEE682779486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ECCF0F-93CC-417B-A4E6-D0898A2A6DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="979" xr2:uid="{3FA59F9D-D9D3-4E28-B3CE-9BFC80E89258}"/>
+    <workbookView xWindow="30405" yWindow="1590" windowWidth="25575" windowHeight="13875" tabRatio="979" activeTab="2" xr2:uid="{3FA59F9D-D9D3-4E28-B3CE-9BFC80E89258}"/>
   </bookViews>
   <sheets>
     <sheet name="Achilles_f" sheetId="11" r:id="rId1"/>
     <sheet name="Achilles_r" sheetId="12" r:id="rId2"/>
+    <sheet name="AchillesPush_f" sheetId="14" r:id="rId3"/>
+    <sheet name="AchillesPush_r" sheetId="15" r:id="rId4"/>
+    <sheet name="Sedan_HambaLG_f" sheetId="13" r:id="rId5"/>
+    <sheet name="Sedan_Hamba_mc_f" sheetId="16" r:id="rId6"/>
+    <sheet name="Sedan_HambaLG_mc_f" sheetId="19" r:id="rId7"/>
+    <sheet name="Bus_Makulu_mc_f" sheetId="18" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="35">
   <si>
     <t>Units</t>
   </si>
@@ -82,9 +88,6 @@
     <t>sSuspension</t>
   </si>
   <si>
-    <t>N*m/rad</t>
-  </si>
-  <si>
     <t>pi*(D^4-d^4)*G/32</t>
   </si>
   <si>
@@ -98,12 +101,60 @@
   </si>
   <si>
     <t>Must be same as Linkage.Bellcrank.sAntiRollBar</t>
+  </si>
+  <si>
+    <t>Must be same as Linkage.Upright.sARB for attachment to Upright</t>
+  </si>
+  <si>
+    <t>DroplinkRod_Sedan_HambaLG_f</t>
+  </si>
+  <si>
+    <t>Rigid_1Rev</t>
+  </si>
+  <si>
+    <t>SubframeConnection</t>
+  </si>
+  <si>
+    <t>sMount</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>N*m/deg</t>
+  </si>
+  <si>
+    <t>N*m/(deg/s)</t>
+  </si>
+  <si>
+    <t>DroplinkRod_FSAE_AchillesPush_f</t>
+  </si>
+  <si>
+    <t>DroplinkRod_FSAE_AchillesPush_r</t>
+  </si>
+  <si>
+    <t>qUniversal</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t>DroplinkRod_Sedan_Hamba_mc_f</t>
+  </si>
+  <si>
+    <t>Droplink_Bus_Makhulu_mc_f</t>
+  </si>
+  <si>
+    <t>DroplinkRod_Sedan_HambaLG_mc_f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,7 +175,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +200,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -162,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -190,12 +247,164 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -537,14 +746,14 @@
   <sheetPr>
     <tabColor rgb="FFFF9999"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D33" sqref="D33"/>
-      <selection pane="topRight" activeCell="D33" sqref="D33"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection activeCell="J29" sqref="J29"/>
+      <selection pane="topRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +764,9 @@
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
     <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
@@ -565,7 +776,7 @@
     <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -585,7 +796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -598,7 +809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -607,10 +818,10 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -621,33 +832,40 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="17">
         <v>-1.43E-2</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="17">
         <v>0.16591</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="17">
         <v>7.3800000000000004E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="J5" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
@@ -661,10 +879,12 @@
         <v>6.8529999999999994E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="D7" t="s">
         <v>11</v>
       </c>
@@ -678,78 +898,147 @@
         <v>0.12307</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>9</v>
-      </c>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.126</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.08</v>
+      </c>
       <c r="H8" s="6">
-        <v>30.96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>11</v>
-      </c>
+        <v>0.12307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
+      <c r="H10" s="6">
+        <v>30.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
+      <c r="H11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="H16" s="12"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="H19" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="A13">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4 A11:B14">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="A18:A19">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 A14:B17">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -762,14 +1051,14 @@
   <sheetPr>
     <tabColor rgb="FFFF9999"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D33" sqref="D33"/>
-      <selection pane="topRight" activeCell="D33" sqref="D33"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection activeCell="J29" sqref="J29"/>
+      <selection pane="topRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,7 +1069,9 @@
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
     <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
@@ -790,7 +1081,7 @@
     <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -810,7 +1101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -823,7 +1114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -832,10 +1123,10 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -846,33 +1137,40 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="17">
         <v>5.8860000000000003E-2</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="17">
         <v>0.2467</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="17">
         <v>0.12791</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="J5" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
@@ -886,10 +1184,12 @@
         <v>0.12956000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="D7" t="s">
         <v>11</v>
       </c>
@@ -903,77 +1203,1962 @@
         <v>8.3070000000000005E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>9</v>
-      </c>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.11799</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.11</v>
+      </c>
       <c r="H8" s="6">
-        <v>76.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>11</v>
-      </c>
+        <v>8.3070000000000005E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
+      <c r="H10" s="6">
+        <v>76.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
+      <c r="H11" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="H16" s="12"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="H19" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A15:A16">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="A13">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4 A11:B14">
+  <conditionalFormatting sqref="A18:A19">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 A14:B17">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F5D887-E7A0-487D-86FB-DC620D02358D}">
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="J29" sqref="J29"/>
+      <selection pane="topRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="17">
+        <v>-1.43E-2</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.16591</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.35</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.14255000000000001</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.126</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.1595</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.126</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
+        <v>30.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A19">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 A14:B17">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1187A96F-7423-4105-8BE0-6AD45D89FBE0}">
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="J29" sqref="J29"/>
+      <selection pane="topRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="17">
+        <v>-5.3100000000000001E-2</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.2467</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.35</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-0.1191</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.218</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-0.11219999999999999</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.21687000000000001</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-0.11219999999999999</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
+        <v>76.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A19">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 A14:B17">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDE222B-A6FF-4987-9A69-80746FC9498C}">
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="J29" sqref="J29"/>
+      <selection pane="topRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="17">
+        <v>-0.05</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
+        <v>30.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A19">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 A14:B17">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904101B2-9A7D-48E6-BC19-DD76F7D1310A}">
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="J29" sqref="J29"/>
+      <selection pane="topRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="17">
+        <f>-0.000217+0.05</f>
+        <v>4.9783000000000001E-2</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.66</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.42</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <f>-0.000217+0.05</f>
+        <v>4.9783000000000001E-2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-0.2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-0.2</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A19">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 A14:B17">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E15FE28-D7F9-41FC-974A-1C4F83B08D60}">
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="J29" sqref="J29"/>
+      <selection pane="topRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="19">
+        <v>-2.6557142857142869E-3</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.45</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="16">
+        <v>-2.6557142857142869E-3</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
+        <v>30.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A19">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 A14:B17">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE304C2-89CE-489F-9A9D-C784A2BF3C11}">
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E5" sqref="E5"/>
+      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.66</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-0.05</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A19">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 A14:B17">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>

--- a/Libraries/Vehicle/AntiRollBar/sm_car_data_AntiRollBar_Droplink_Rod.xlsx
+++ b/Libraries/Vehicle/AntiRollBar/sm_car_data_AntiRollBar_Droplink_Rod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\AntiRollBar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ECCF0F-93CC-417B-A4E6-D0898A2A6DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D530A0F5-B2A8-4819-8721-2442FD4304F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30405" yWindow="1590" windowWidth="25575" windowHeight="13875" tabRatio="979" activeTab="2" xr2:uid="{3FA59F9D-D9D3-4E28-B3CE-9BFC80E89258}"/>
+    <workbookView xWindow="36735" yWindow="0" windowWidth="20970" windowHeight="15585" tabRatio="979" firstSheet="2" activeTab="6" xr2:uid="{3FA59F9D-D9D3-4E28-B3CE-9BFC80E89258}"/>
   </bookViews>
   <sheets>
     <sheet name="Achilles_f" sheetId="11" r:id="rId1"/>
@@ -1358,7 +1358,7 @@
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J29" sqref="J29"/>
       <selection pane="topRight" activeCell="J29" sqref="J29"/>
@@ -1973,7 +1973,7 @@
       <selection activeCell="J29" sqref="J29"/>
       <selection pane="topRight" activeCell="J29" sqref="J29"/>
       <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
-      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2578,12 +2578,12 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J29" sqref="J29"/>
       <selection pane="topRight" activeCell="J29" sqref="J29"/>
       <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
-      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2678,13 +2678,13 @@
         <v>20</v>
       </c>
       <c r="F5" s="19">
-        <v>-2.6557142857142869E-3</v>
+        <v>0.03</v>
       </c>
       <c r="G5" s="17">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="H5" s="17">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>20</v>
@@ -2700,10 +2700,10 @@
         <v>11</v>
       </c>
       <c r="F6" s="16">
-        <v>-2.6557142857142869E-3</v>
+        <v>0.04</v>
       </c>
       <c r="G6" s="6">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="H6" s="6">
         <v>0.25</v>

--- a/Libraries/Vehicle/AntiRollBar/sm_car_data_AntiRollBar_Droplink_Rod.xlsx
+++ b/Libraries/Vehicle/AntiRollBar/sm_car_data_AntiRollBar_Droplink_Rod.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\AntiRollBar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D530A0F5-B2A8-4819-8721-2442FD4304F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C660E8-72A7-47FE-8888-E619283EBEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36735" yWindow="0" windowWidth="20970" windowHeight="15585" tabRatio="979" firstSheet="2" activeTab="6" xr2:uid="{3FA59F9D-D9D3-4E28-B3CE-9BFC80E89258}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="979" firstSheet="6" activeTab="6" xr2:uid="{3FA59F9D-D9D3-4E28-B3CE-9BFC80E89258}"/>
   </bookViews>
   <sheets>
-    <sheet name="Achilles_f" sheetId="11" r:id="rId1"/>
-    <sheet name="Achilles_r" sheetId="12" r:id="rId2"/>
-    <sheet name="AchillesPush_f" sheetId="14" r:id="rId3"/>
-    <sheet name="AchillesPush_r" sheetId="15" r:id="rId4"/>
-    <sheet name="Sedan_HambaLG_f" sheetId="13" r:id="rId5"/>
-    <sheet name="Sedan_Hamba_mc_f" sheetId="16" r:id="rId6"/>
-    <sheet name="Sedan_HambaLG_mc_f" sheetId="19" r:id="rId7"/>
-    <sheet name="Bus_Makulu_mc_f" sheetId="18" r:id="rId8"/>
+    <sheet name="Achilles_BC_f" sheetId="11" r:id="rId1"/>
+    <sheet name="Achilles_BC_r" sheetId="12" r:id="rId2"/>
+    <sheet name="AchillesPush_BC_f" sheetId="14" r:id="rId3"/>
+    <sheet name="AchillesPush_BC_r" sheetId="15" r:id="rId4"/>
+    <sheet name="Achilles_LA_f" sheetId="26" r:id="rId5"/>
+    <sheet name="Achilles_LA_r" sheetId="27" r:id="rId6"/>
+    <sheet name="Sedan_Hamba_LA_f" sheetId="20" r:id="rId7"/>
+    <sheet name="Sedan_Hamba_LA_r" sheetId="21" r:id="rId8"/>
+    <sheet name="Sedan_HambaLG_Upr_f" sheetId="13" r:id="rId9"/>
+    <sheet name="Sedan_HambaLG_LA_f" sheetId="22" r:id="rId10"/>
+    <sheet name="Sedan_HambaLG_LA_r" sheetId="23" r:id="rId11"/>
+    <sheet name="Sedan_Hamba_mc_f" sheetId="16" r:id="rId12"/>
+    <sheet name="Sedan_HambaLG_mc_f" sheetId="19" r:id="rId13"/>
+    <sheet name="SUV_Landy_LA_f" sheetId="28" r:id="rId14"/>
+    <sheet name="Bus_Makhulu_mc_f" sheetId="18" r:id="rId15"/>
+    <sheet name="Bus_Makhulu_LA_f" sheetId="24" r:id="rId16"/>
+    <sheet name="Bus_Makhulu_LA_r" sheetId="25" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="45">
   <si>
     <t>Units</t>
   </si>
@@ -94,19 +103,10 @@
     <t>DroplinkRod</t>
   </si>
   <si>
-    <t>DroplinkRod_FSAE_Achilles_r</t>
-  </si>
-  <si>
-    <t>DroplinkRod_FSAE_Achilles_f</t>
-  </si>
-  <si>
     <t>Must be same as Linkage.Bellcrank.sAntiRollBar</t>
   </si>
   <si>
     <t>Must be same as Linkage.Upright.sARB for attachment to Upright</t>
-  </si>
-  <si>
-    <t>DroplinkRod_Sedan_HambaLG_f</t>
   </si>
   <si>
     <t>Rigid_1Rev</t>
@@ -127,12 +127,6 @@
     <t>N*m/(deg/s)</t>
   </si>
   <si>
-    <t>DroplinkRod_FSAE_AchillesPush_f</t>
-  </si>
-  <si>
-    <t>DroplinkRod_FSAE_AchillesPush_r</t>
-  </si>
-  <si>
     <t>qUniversal</t>
   </si>
   <si>
@@ -146,6 +140,51 @@
   </si>
   <si>
     <t>DroplinkRod_Sedan_HambaLG_mc_f</t>
+  </si>
+  <si>
+    <t>DroplinkRod_Sedan_Hamba_LA_f</t>
+  </si>
+  <si>
+    <t>DroplinkRod_Sedan_Hamba_LA_r</t>
+  </si>
+  <si>
+    <t>DroplinkRod_Sedan_HambaLG_Upr_f</t>
+  </si>
+  <si>
+    <t>DroplinkRod_Sedan_HambaLG_LA_f</t>
+  </si>
+  <si>
+    <t>DroplinkRod_Sedan_HambaLG_LA_r</t>
+  </si>
+  <si>
+    <t>DroplinkRod_FSAE_Achilles_BC_f</t>
+  </si>
+  <si>
+    <t>DroplinkRod_FSAE_Achilles_BC_r</t>
+  </si>
+  <si>
+    <t>DroplinkRod_FSAE_AchillesPush_BC_f</t>
+  </si>
+  <si>
+    <t>DroplinkRod_FSAE_AchillesPush_BC_r</t>
+  </si>
+  <si>
+    <t>DroplinkRod_FSAE_Achilles_LA_f</t>
+  </si>
+  <si>
+    <t>Must be same as AntiRollBar.sSuspension for attachment to LowerArm</t>
+  </si>
+  <si>
+    <t>DroplinkRod_FSAE_Achilles_LA_r</t>
+  </si>
+  <si>
+    <t>DroplinkRod_Bus_Makhulu_LA_f</t>
+  </si>
+  <si>
+    <t>DroplinkRod_Bus_Makhulu_LA_r</t>
+  </si>
+  <si>
+    <t>DroplinkRod_SUV_Landy_LA_f</t>
   </si>
 </sst>
 </file>
@@ -264,7 +303,196 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="51">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -753,7 +981,7 @@
       <selection activeCell="J29" sqref="J29"/>
       <selection pane="topRight" activeCell="J29" sqref="J29"/>
       <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,7 +1046,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -845,7 +1073,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" s="17">
         <v>-1.43E-2</v>
@@ -857,7 +1085,7 @@
         <v>7.3800000000000004E-2</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -900,7 +1128,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -919,12 +1147,12 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -939,7 +1167,7 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -952,12 +1180,12 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -982,7 +1210,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>7</v>
@@ -993,7 +1221,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1028,17 +1256,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4 A14:B17">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1046,923 +1274,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36B0A6E-B81F-4CD0-A781-6F76E6708E49}">
-  <sheetPr>
-    <tabColor rgb="FFFF9999"/>
-  </sheetPr>
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="J29" sqref="J29"/>
-      <selection pane="topRight" activeCell="J29" sqref="J29"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
-      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="44" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="6.7109375" customWidth="1"/>
-    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="26" width="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="17">
-        <v>5.8860000000000003E-2</v>
-      </c>
-      <c r="G5" s="17">
-        <v>0.2467</v>
-      </c>
-      <c r="H5" s="17">
-        <v>0.12791</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.12486999999999999</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.218</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.12956000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.11799</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.21687000000000001</v>
-      </c>
-      <c r="H7" s="6">
-        <v>8.3070000000000005E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.11799</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="H8" s="6">
-        <v>8.3070000000000005E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6">
-        <v>76.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="H19" s="12"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A19">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4 A14:B17">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F5D887-E7A0-487D-86FB-DC620D02358D}">
-  <sheetPr>
-    <tabColor rgb="FFFF9999"/>
-  </sheetPr>
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="J29" sqref="J29"/>
-      <selection pane="topRight" activeCell="J29" sqref="J29"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="44" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="6.7109375" customWidth="1"/>
-    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="26" width="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="17">
-        <v>-1.43E-2</v>
-      </c>
-      <c r="G5" s="17">
-        <v>0.16591</v>
-      </c>
-      <c r="H5" s="17">
-        <v>0.35</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.14255000000000001</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.126</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.1595</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.126</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6">
-        <v>30.96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="H19" s="12"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A19">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4 A14:B17">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1187A96F-7423-4105-8BE0-6AD45D89FBE0}">
-  <sheetPr>
-    <tabColor rgb="FFFF9999"/>
-  </sheetPr>
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="J29" sqref="J29"/>
-      <selection pane="topRight" activeCell="J29" sqref="J29"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
-      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="44" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="6.7109375" customWidth="1"/>
-    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="26" width="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="17">
-        <v>-5.3100000000000001E-2</v>
-      </c>
-      <c r="G5" s="17">
-        <v>0.2467</v>
-      </c>
-      <c r="H5" s="17">
-        <v>0.35</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="6">
-        <v>-0.1191</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.218</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="6">
-        <v>-0.11219999999999999</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.21687000000000001</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="6">
-        <v>-0.11219999999999999</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6">
-        <v>76.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="H19" s="12"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A19">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4 A14:B17">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDE222B-A6FF-4987-9A69-80746FC9498C}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBFBDE5-313F-45A5-9CED-972E63B9DB16}">
   <sheetPr>
     <tabColor rgb="FFFF9999"/>
   </sheetPr>
@@ -1973,7 +1286,7 @@
       <selection activeCell="J29" sqref="J29"/>
       <selection pane="topRight" activeCell="J29" sqref="J29"/>
       <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8:H8"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2038,7 +1351,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2065,19 +1378,19 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="17">
         <v>-0.05</v>
       </c>
       <c r="G5" s="17">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="H5" s="17">
-        <v>0.52500000000000002</v>
+        <v>0.15</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2090,10 +1403,10 @@
         <v>11</v>
       </c>
       <c r="F6" s="6">
-        <v>-4.4999999999999998E-2</v>
+        <v>-0.05</v>
       </c>
       <c r="G6" s="6">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="H6" s="6">
         <v>0.25</v>
@@ -2110,18 +1423,18 @@
         <v>11</v>
       </c>
       <c r="F7" s="6">
-        <v>0.28999999999999998</v>
+        <v>-0.3</v>
       </c>
       <c r="G7" s="6">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="H7" s="6">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2129,23 +1442,23 @@
         <v>11</v>
       </c>
       <c r="F8" s="6">
-        <v>0.28999999999999998</v>
+        <v>-0.3</v>
       </c>
       <c r="G8" s="6">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="H8" s="6">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -2160,7 +1473,7 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -2168,17 +1481,17 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6">
-        <v>30.96</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -2203,7 +1516,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>7</v>
@@ -2214,7 +1527,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2249,17 +1562,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4 A14:B17">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2267,7 +1580,313 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5903A62-A942-4A81-A495-B0418FFB493E}">
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="J29" sqref="J29"/>
+      <selection pane="topRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.73</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A19">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 A14:B17">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904101B2-9A7D-48E6-BC19-DD76F7D1310A}">
   <sheetPr>
     <tabColor rgb="FFFF9999"/>
@@ -2344,7 +1963,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2371,7 +1990,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="17">
         <f>-0.000217+0.05</f>
@@ -2384,7 +2003,7 @@
         <v>0.42</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2428,7 +2047,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2447,12 +2066,12 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -2467,7 +2086,7 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -2477,12 +2096,12 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -2507,7 +2126,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>7</v>
@@ -2518,7 +2137,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2553,17 +2172,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4 A14:B17">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2571,14 +2190,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E15FE28-D7F9-41FC-974A-1C4F83B08D60}">
   <sheetPr>
     <tabColor rgb="FFFF9999"/>
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J29" sqref="J29"/>
       <selection pane="topRight" activeCell="J29" sqref="J29"/>
@@ -2648,7 +2267,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2675,7 +2294,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="19">
         <v>0.03</v>
@@ -2687,7 +2306,7 @@
         <v>0.48</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2731,7 +2350,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2750,12 +2369,12 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -2770,7 +2389,7 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -2783,12 +2402,12 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -2813,7 +2432,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>7</v>
@@ -2824,7 +2443,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2859,17 +2478,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4 A14:B17">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2877,7 +2496,317 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB21466F-9DF6-4F89-9922-96B5502AE619}">
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="J29" sqref="J29"/>
+      <selection pane="topRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="17">
+        <v>-0.05</v>
+      </c>
+      <c r="G5" s="17">
+        <f>0.75-0.25</f>
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-0.05</v>
+      </c>
+      <c r="G6" s="6">
+        <f>0.75-0.25</f>
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="G7" s="6">
+        <f>0.73-0.25</f>
+        <v>0.48</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="G8" s="6">
+        <f>0.35-0.125</f>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A19">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 A14:B17">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE304C2-89CE-489F-9A9D-C784A2BF3C11}">
   <sheetPr>
     <tabColor rgb="FFFF9999"/>
@@ -2954,7 +2883,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2981,7 +2910,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="17">
         <v>0.05</v>
@@ -2993,7 +2922,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3032,7 +2961,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -3049,12 +2978,12 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -3067,7 +2996,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -3077,10 +3006,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -3103,7 +3032,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>7</v>
@@ -3114,7 +3043,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3130,6 +3059,618 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A19">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 A14:B17">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E682D2-24ED-4760-8CA2-0BB90F67F0A4}">
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="J29" sqref="J29"/>
+      <selection pane="topRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="17">
+        <v>-0.05</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-0.05</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A19">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 A14:B17">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3121048-629F-482E-AE7F-1FD418E93CB2}">
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="J29" sqref="J29"/>
+      <selection pane="topRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="17">
+        <v>-0.05</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-0.05</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -3165,4 +3706,2447 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36B0A6E-B81F-4CD0-A781-6F76E6708E49}">
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="J29" sqref="J29"/>
+      <selection pane="topRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="17">
+        <v>5.8860000000000003E-2</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.2467</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.12791</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.12486999999999999</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.218</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.12956000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.11799</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.21687000000000001</v>
+      </c>
+      <c r="H7" s="6">
+        <v>8.3070000000000005E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.11799</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="H8" s="6">
+        <v>8.3070000000000005E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
+        <v>76.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A19">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 A14:B17">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F5D887-E7A0-487D-86FB-DC620D02358D}">
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="J29" sqref="J29"/>
+      <selection pane="topRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="17">
+        <v>-1.43E-2</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.16591</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.35</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.14255000000000001</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.126</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.1595</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.126</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
+        <v>30.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A19">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 A14:B17">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1187A96F-7423-4105-8BE0-6AD45D89FBE0}">
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="J29" sqref="J29"/>
+      <selection pane="topRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="17">
+        <v>-5.3100000000000001E-2</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.2467</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.35</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-0.1191</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.218</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-0.11219999999999999</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.21687000000000001</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-0.11219999999999999</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
+        <v>76.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A19">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 A14:B17">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870FA124-F565-4460-B318-D9684908DA67}">
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="J29" sqref="J29"/>
+      <selection pane="topRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-0.02</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-0.02</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
+        <v>30.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A19">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 A14:B17">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1BE897-ED0B-47FD-8FC4-BA7192505084}">
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="J29" sqref="J29"/>
+      <selection pane="topRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="17">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.218</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.18</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.218</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.12956000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.21687000000000001</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.12956000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.12956000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
+        <v>76.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A19">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 A14:B17">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765E6DD6-1829-45FD-8E76-4086E799D8EA}">
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="J29" sqref="J29"/>
+      <selection pane="topRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="17">
+        <v>-0.05</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-0.05</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A19">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 A14:B17">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B897E858-4DCC-4942-8F0C-41A4756A4273}">
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="J29" sqref="J29"/>
+      <selection pane="topRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A19">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 A14:B17">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDE222B-A6FF-4987-9A69-80746FC9498C}">
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="J29" sqref="J29"/>
+      <selection pane="topRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="17">
+        <v>-0.05</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
+        <v>30.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A19">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 A14:B17">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>